--- a/data/Bahia Posesion likely encounters table information.xlsx
+++ b/data/Bahia Posesion likely encounters table information.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\JAC_150_vessels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E42322-A926-4ECE-BF16-F3538F8C7A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8A55929-26FA-4B29-9B93-9BF26A2D7913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28320" yWindow="-975" windowWidth="26955" windowHeight="12525" xr2:uid="{9C87F92C-2833-46A9-B92E-F5DEBC8572D0}"/>
+    <workbookView xWindow="-27885" yWindow="-540" windowWidth="21570" windowHeight="10020" xr2:uid="{9C87F92C-2833-46A9-B92E-F5DEBC8572D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>FU YUAN YU 7870</t>
   </si>
@@ -108,6 +109,9 @@
   </si>
   <si>
     <t>V2 flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -115,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -134,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,14 +146,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FB546A-1BE2-49CD-A272-F9048829400A}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J9" sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,294 +504,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>44328.520833333336</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>44328.673611111109</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>-52.261342370000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>-69.201447430000002</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>412440659</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>412440661</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>44328.708333333336</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>44328.944444444445</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>-52.299497559999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>-69.277458190000004</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>412440657</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>412440663</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>44329.597222222219</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>44329.791666666664</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>-52.287063709999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>-69.311035759999996</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>412440604</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>7884</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>412550615</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>44330.548611111109</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>44330.666666666664</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>-52.26098751</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>-69.203337869999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>412440661</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>412440658</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>44335.729166666664</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>44335.993055555555</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>-52.286676</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>-69.308256259999993</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>412420822</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>412421192</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>44717.895833333336</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>44718.305555555555</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>-52.248426950000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>-69.29178211</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>412421178</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>412421144</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>44774.506944444445</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>44774.923611111109</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>-52.258758550000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>-69.310174020000005</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>412331286</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>412331284</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>44774.534722222219</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>44774.923611111109</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>-52.258752510000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>-69.310327610000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>150402944</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>412331284</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
-        <v>1</v>
+      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>